--- a/biology/Biologie cellulaire et moléculaire/NOD2/NOD2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/NOD2/NOD2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">NOD2 (« nucleotide-binding oligomerization domain 2 »), appelé également CARD15 (« caspase recruitment domain-containing protein 15 ») est une protéine constituant l'un des deux types de récepteur NOD. Son gène est le NOD2 situé sur le chromosome 16 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec le NOD1, il contribue à la détection des bactéries intra cellulaire et à leur destruction[5]. Il reconnait ainsi le muramyldipeptide, un peptidoglycane bactérien[6].
-NOD2 active la voie de la prostaglandine E2 et pourrait intervenir, par ce biais, dans la genèse de l'athérome[7].
-Il est exprimé également dans le plaquettes sanguines avec un rôle dans la formation des thromboses[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec le NOD1, il contribue à la détection des bactéries intra cellulaire et à leur destruction. Il reconnait ainsi le muramyldipeptide, un peptidoglycane bactérien.
+NOD2 active la voie de la prostaglandine E2 et pourrait intervenir, par ce biais, dans la genèse de l'athérome.
+Il est exprimé également dans le plaquettes sanguines avec un rôle dans la formation des thromboses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines mutations de son gène augmentent le risque de développer une maladie de Crohn[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines mutations de son gène augmentent le risque de développer une maladie de Crohn.
 </t>
         </is>
       </c>
